--- a/2020-08.xlsx
+++ b/2020-08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="6" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="8" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="2020-08-21" sheetId="1" r:id="rId4"/>
@@ -14,6 +14,8 @@
     <sheet name="2020-08-19 1" sheetId="5" r:id="rId8"/>
     <sheet name="2020-08-18" sheetId="6" r:id="rId9"/>
     <sheet name="2020-08-18 1" sheetId="7" r:id="rId10"/>
+    <sheet name="2020-08-27" sheetId="8" r:id="rId11"/>
+    <sheet name="2020-08-27 1" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -21,138 +23,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
-    <t>記入者</t>
+    <t>User Name</t>
   </si>
   <si>
     <t>Tadashi</t>
   </si>
   <si>
-    <t>日付</t>
+    <t>Date</t>
   </si>
   <si>
     <t>2020-08-21</t>
   </si>
   <si>
-    <t>店舗名</t>
+    <t>Branch</t>
   </si>
   <si>
     <t>おかさと庵</t>
   </si>
   <si>
-    <t>つり銭</t>
+    <t>Change</t>
   </si>
   <si>
-    <t>内訳</t>
+    <t>Breakdown</t>
   </si>
   <si>
-    <t>現金売上</t>
+    <t>Cash Sale</t>
   </si>
   <si>
-    <t>取引・購入先名</t>
+    <t>Clients</t>
   </si>
   <si>
-    <t>明細</t>
+    <t>Items &amp; Services</t>
   </si>
   <si>
-    <t>入金</t>
+    <t>Received</t>
   </si>
   <si>
-    <t>出金</t>
+    <t>Spent</t>
   </si>
   <si>
-    <t>支払計</t>
+    <t>Total Spent</t>
   </si>
   <si>
-    <t>本部記入欄</t>
+    <t>For Front Office</t>
   </si>
   <si>
-    <t>レジ残計</t>
+    <t>Total Balance at Cashier</t>
   </si>
   <si>
     <t>8%</t>
   </si>
   <si>
-    <t>現金過不足</t>
+    <t>Deficiency &amp; Excess</t>
   </si>
   <si>
     <t>10%</t>
   </si>
   <si>
-    <t>実残合計</t>
+    <t>Actual Total Balance</t>
   </si>
   <si>
-    <t>計</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>翌日つり銭</t>
+    <t>Next Day Change</t>
   </si>
   <si>
-    <t>クーポン計</t>
+    <t>Coupon Total</t>
   </si>
   <si>
-    <t>翌日預け入れ</t>
+    <t>Next Day Deposit</t>
   </si>
   <si>
-    <t>クーポン差額</t>
+    <t>Coupon Margin</t>
   </si>
   <si>
-    <t>※食事券計は、ジャーナルの食事券計と合致すること。</t>
+    <t>The sum of meal tickets includes journal's meal tickets.</t>
   </si>
   <si>
-    <t>食事券計(その他含む</t>
+    <t>Total (Others Included)</t>
   </si>
   <si>
-    <t>円</t>
+    <t>Premium</t>
   </si>
   <si>
-    <t>プレミアム食事券</t>
+    <t>For Sale</t>
   </si>
   <si>
-    <t>販売用回収</t>
+    <t>For Service</t>
   </si>
   <si>
-    <t>サービス用回収</t>
+    <t>1000 Yen</t>
   </si>
   <si>
-    <t>千円券</t>
+    <t>500 Yen</t>
   </si>
   <si>
-    <t>枚</t>
+    <t>200 Yen</t>
   </si>
   <si>
-    <t>500円</t>
+    <t>Other Meal Tickets</t>
   </si>
   <si>
-    <t>200円</t>
+    <t>Accounts Receivable-Trade</t>
   </si>
   <si>
-    <t>その他</t>
+    <t>DC Sales Total</t>
   </si>
   <si>
-    <t>売掛金</t>
+    <t>JCB Sales Total</t>
   </si>
   <si>
-    <t>DC売上合計</t>
-  </si>
-  <si>
-    <t>0件</t>
-  </si>
-  <si>
-    <t>0円</t>
-  </si>
-  <si>
-    <t>JCB売上合計</t>
-  </si>
-  <si>
-    <t>PAYPAY売上合計</t>
-  </si>
-  <si>
-    <t>1件</t>
-  </si>
-  <si>
-    <t>1円</t>
+    <t>PAYPAY Sales Total</t>
   </si>
   <si>
     <t>nanaco</t>
@@ -161,7 +145,7 @@
     <t>edy</t>
   </si>
   <si>
-    <t>交通IC</t>
+    <t>Transportation IC</t>
   </si>
   <si>
     <t>Quick Pay</t>
@@ -170,22 +154,19 @@
     <t>WAON</t>
   </si>
   <si>
-    <t>メモ、伝達事項：</t>
+    <t>Notes, Info to Share</t>
   </si>
   <si>
     <t>gold</t>
   </si>
   <si>
-    <t>Mika様</t>
+    <t>Mika</t>
   </si>
   <si>
-    <t>1000円</t>
+    <t>DC Sales Breakdown</t>
   </si>
   <si>
-    <t>DC売上内訳</t>
-  </si>
-  <si>
-    <t>JCB売上内訳</t>
+    <t>JCB Sales Breakdown</t>
   </si>
   <si>
     <t>transferzilla</t>
@@ -212,21 +193,6 @@
     <t>bronze</t>
   </si>
   <si>
-    <t>A様</t>
-  </si>
-  <si>
-    <t>B様</t>
-  </si>
-  <si>
-    <t>2000円</t>
-  </si>
-  <si>
-    <t>2件</t>
-  </si>
-  <si>
-    <t>3000円</t>
-  </si>
-  <si>
     <t>2020-08-19</t>
   </si>
   <si>
@@ -236,13 +202,7 @@
     <t>b</t>
   </si>
   <si>
-    <t>a様</t>
-  </si>
-  <si>
-    <t>C様</t>
-  </si>
-  <si>
-    <t>2円</t>
+    <t>C</t>
   </si>
   <si>
     <t>tom</t>
@@ -252,6 +212,39 @@
   </si>
   <si>
     <t>Henry</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Food Max</t>
+  </si>
+  <si>
+    <t>Salaries for cleaning helpers</t>
+  </si>
+  <si>
+    <t>Kojiro</t>
+  </si>
+  <si>
+    <t>AB Hotel</t>
+  </si>
+  <si>
+    <t>2 nights stay</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Mr. Simmons</t>
+  </si>
+  <si>
+    <t>paypal</t>
   </si>
 </sst>
 </file>
@@ -1288,26 +1281,24 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -1315,48 +1306,36 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -1369,19 +1348,15 @@
       <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -1394,66 +1369,62 @@
       <c r="J32" s="9">
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="G44"/>
       <c r="I44"/>
@@ -1461,13 +1432,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="G45"/>
       <c r="I45"/>
@@ -1475,13 +1446,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="G46"/>
       <c r="I46"/>
@@ -1489,13 +1460,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="G47"/>
       <c r="I47"/>
@@ -1503,13 +1474,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
         <v>42</v>
       </c>
-      <c r="E48" t="s">
-        <v>43</v>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="G48"/>
       <c r="I48"/>
@@ -1517,7 +1488,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2180,26 +2151,24 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -2207,48 +2176,36 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2261,19 +2218,15 @@
       <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -2286,103 +2239,95 @@
       <c r="J32" s="9">
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
+      <c r="C35"/>
       <c r="D35">
         <v>3000</v>
       </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
+      <c r="E35"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="K40">
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1000</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="G47"/>
       <c r="I47"/>
@@ -2390,13 +2335,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="G48"/>
       <c r="I48"/>
@@ -2404,13 +2349,13 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="G49"/>
       <c r="I49"/>
@@ -2418,13 +2363,13 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
       </c>
       <c r="G50"/>
       <c r="I50"/>
@@ -2432,13 +2377,13 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" t="s">
         <v>42</v>
       </c>
-      <c r="E51" t="s">
-        <v>43</v>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
       </c>
       <c r="G51"/>
       <c r="I51"/>
@@ -2446,13 +2391,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1000</v>
       </c>
       <c r="G52"/>
       <c r="I52"/>
@@ -2460,7 +2405,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2717,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2725,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -2794,12 +2739,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="8"/>
@@ -2815,12 +2760,12 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="8"/>
@@ -2883,12 +2828,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="7"/>
@@ -2904,12 +2849,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="8"/>
@@ -3159,26 +3104,24 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -3186,48 +3129,36 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
         <v>2000</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="4">
         <v>2</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3">
         <v>2000</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -3240,19 +3171,15 @@
       <c r="J31" s="5">
         <v>2</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>1000</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -3265,136 +3192,124 @@
       <c r="J32" s="9">
         <v>2</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="10">
         <v>400</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
+      <c r="C35"/>
       <c r="D35">
         <v>2000</v>
       </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
+      <c r="E35"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
+      <c r="C36"/>
       <c r="D36">
         <v>2000</v>
       </c>
-      <c r="E36" t="s">
-        <v>27</v>
-      </c>
+      <c r="E36"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="E42">
+        <v>2000</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="K42">
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="E43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" t="s">
-        <v>52</v>
+      <c r="E43">
+        <v>1000</v>
+      </c>
+      <c r="K43">
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3000</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>3000</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2000</v>
       </c>
       <c r="G50"/>
       <c r="I50"/>
@@ -3402,13 +3317,13 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2000</v>
       </c>
       <c r="G51"/>
       <c r="I51"/>
@@ -3416,13 +3331,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2000</v>
       </c>
       <c r="G52"/>
       <c r="I52"/>
@@ -3430,13 +3345,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2000</v>
       </c>
       <c r="G53"/>
       <c r="I53"/>
@@ -3444,13 +3359,13 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2000</v>
       </c>
       <c r="G54"/>
       <c r="I54"/>
@@ -3458,7 +3373,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3721,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -4131,26 +4046,24 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -4158,48 +4071,36 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -4212,19 +4113,15 @@
       <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -4237,66 +4134,62 @@
       <c r="J32" s="9">
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="G44"/>
       <c r="I44"/>
@@ -4304,13 +4197,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="G45"/>
       <c r="I45"/>
@@ -4318,13 +4211,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="G46"/>
       <c r="I46"/>
@@ -4332,13 +4225,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="G47"/>
       <c r="I47"/>
@@ -4346,13 +4239,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
         <v>42</v>
       </c>
-      <c r="E48" t="s">
-        <v>43</v>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="G48"/>
       <c r="I48"/>
@@ -4360,7 +4253,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4613,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -4682,12 +4575,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="8"/>
@@ -4703,12 +4596,12 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="8"/>
@@ -4771,12 +4664,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="7"/>
@@ -4792,12 +4685,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="8"/>
@@ -5047,26 +4940,24 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -5074,48 +4965,36 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -5128,19 +5007,15 @@
       <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -5153,136 +5028,124 @@
       <c r="J32" s="9">
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
+      <c r="C35"/>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
+      <c r="E35"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
+      <c r="C36"/>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>27</v>
-      </c>
+      <c r="E36"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="C40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="E43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K43" t="s">
-        <v>43</v>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" t="s">
-        <v>73</v>
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
       </c>
       <c r="G50"/>
       <c r="I50"/>
@@ -5290,13 +5153,13 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
       </c>
       <c r="G51"/>
       <c r="I51"/>
@@ -5304,13 +5167,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
       </c>
       <c r="G52"/>
       <c r="I52"/>
@@ -5318,13 +5181,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="G53"/>
       <c r="I53"/>
@@ -5332,13 +5195,13 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="s">
         <v>42</v>
       </c>
-      <c r="E54" t="s">
-        <v>43</v>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="G54"/>
       <c r="I54"/>
@@ -5346,13 +5209,13 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
       </c>
       <c r="G55"/>
       <c r="I55"/>
@@ -5360,13 +5223,13 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
       </c>
       <c r="G56"/>
       <c r="I56"/>
@@ -5374,7 +5237,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -5641,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5649,7 +5512,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -6059,26 +5922,24 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -6086,48 +5947,36 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -6140,19 +5989,15 @@
       <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -6165,66 +6010,62 @@
       <c r="J32" s="9">
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="G44"/>
       <c r="I44"/>
@@ -6232,13 +6073,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="G45"/>
       <c r="I45"/>
@@ -6246,13 +6087,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="G46"/>
       <c r="I46"/>
@@ -6260,13 +6101,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="G47"/>
       <c r="I47"/>
@@ -6274,13 +6115,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
         <v>42</v>
       </c>
-      <c r="E48" t="s">
-        <v>43</v>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="G48"/>
       <c r="I48"/>
@@ -6288,7 +6129,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -6522,7 +6363,7 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A51" sqref="A51:L55"/>
     </sheetView>
   </sheetViews>
@@ -6533,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6541,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -6951,26 +6792,24 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -6978,48 +6817,36 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -7032,19 +6859,15 @@
       <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -7057,66 +6880,62 @@
       <c r="J32" s="9">
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="G44"/>
       <c r="I44"/>
@@ -7124,13 +6943,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="G45"/>
       <c r="I45"/>
@@ -7138,13 +6957,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="G46"/>
       <c r="I46"/>
@@ -7152,13 +6971,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="G47"/>
       <c r="I47"/>
@@ -7166,13 +6985,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
         <v>42</v>
       </c>
-      <c r="E48" t="s">
-        <v>43</v>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="G48"/>
       <c r="I48"/>
@@ -7180,7 +6999,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -7405,4 +7224,1815 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M55"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A51" sqref="A51:L55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="J21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <v>500</v>
+      </c>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10">
+        <v>200</v>
+      </c>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44"/>
+      <c r="I44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45"/>
+      <c r="I45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="G46"/>
+      <c r="I46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47"/>
+      <c r="I47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48"/>
+      <c r="I48"/>
+      <c r="K48"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:L55"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A54" sqref="A54:L58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="J21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>2702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <v>500</v>
+      </c>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10">
+        <v>200</v>
+      </c>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="G46"/>
+      <c r="I46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47"/>
+      <c r="I47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48"/>
+      <c r="I48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="G49"/>
+      <c r="I49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50"/>
+      <c r="I50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="G51"/>
+      <c r="I51"/>
+      <c r="K51"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:L58"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>